--- a/plan/1.컨텐츠/몬스터/몬스터 설정.xlsx
+++ b/plan/1.컨텐츠/몬스터/몬스터 설정.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="19185" yWindow="-15" windowWidth="9660" windowHeight="12615" tabRatio="783"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>구분</t>
   </si>
@@ -411,6 +410,10 @@
   </si>
   <si>
     <t>고블린 마법사들이 소환한 마법골렘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,46 +922,46 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1477,10 +1480,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1626,19 +1626,25 @@
         <v>8</v>
       </c>
       <c r="D16" s="13">
-        <v>7</v>
+        <f>SUM(D12:D15)</f>
+        <v>6</v>
       </c>
       <c r="E16" s="13">
-        <f>SUM(E12:E15)</f>
+        <f t="shared" ref="E16:F16" si="0">SUM(E12:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="14">
-        <f>COUNT(F12:F15)</f>
-        <v>4</v>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G16" s="14">
         <f>SUM(D16:F16)</f>
-        <v>11</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1825,18 +1831,20 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1851,14 +1859,14 @@
       <c r="B1" s="17">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="28"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -1867,12 +1875,12 @@
       <c r="B2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="35"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -1881,10 +1889,10 @@
       <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -1893,10 +1901,10 @@
       <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -1905,10 +1913,10 @@
       <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -1917,10 +1925,10 @@
       <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1929,10 +1937,10 @@
       <c r="B7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
@@ -1941,10 +1949,10 @@
       <c r="B8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
@@ -1953,14 +1961,14 @@
       <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
@@ -1969,12 +1977,12 @@
       <c r="B10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="35"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
@@ -1983,10 +1991,10 @@
       <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
@@ -1995,10 +2003,10 @@
       <c r="B12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
@@ -2007,10 +2015,10 @@
       <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
@@ -2019,10 +2027,10 @@
       <c r="B14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
@@ -2031,10 +2039,10 @@
       <c r="B15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
@@ -2043,10 +2051,10 @@
       <c r="B16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
@@ -2055,14 +2063,14 @@
       <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="40"/>
+      <c r="E17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
@@ -2071,12 +2079,12 @@
       <c r="B18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="35"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
@@ -2085,10 +2093,10 @@
       <c r="B19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
@@ -2097,10 +2105,10 @@
       <c r="B20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
@@ -2109,10 +2117,10 @@
       <c r="B21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
@@ -2121,10 +2129,10 @@
       <c r="B22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
@@ -2133,10 +2141,10 @@
       <c r="B23" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
@@ -2145,10 +2153,10 @@
       <c r="B24" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
@@ -2157,14 +2165,14 @@
       <c r="B25" s="17">
         <v>4</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
@@ -2173,12 +2181,12 @@
       <c r="B26" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
@@ -2187,10 +2195,10 @@
       <c r="B27" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
@@ -2199,10 +2207,10 @@
       <c r="B28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
@@ -2211,10 +2219,10 @@
       <c r="B29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
@@ -2223,10 +2231,10 @@
       <c r="B30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -2235,10 +2243,10 @@
       <c r="B31" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
@@ -2247,10 +2255,10 @@
       <c r="B32" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
@@ -2259,14 +2267,14 @@
       <c r="B33" s="17">
         <v>5</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="40"/>
+      <c r="E33" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
@@ -2275,12 +2283,12 @@
       <c r="B34" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="35"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -2289,10 +2297,10 @@
       <c r="B35" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -2301,10 +2309,10 @@
       <c r="B36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -2313,10 +2321,10 @@
       <c r="B37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -2325,10 +2333,10 @@
       <c r="B38" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -2337,10 +2345,10 @@
       <c r="B39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
@@ -2349,10 +2357,10 @@
       <c r="B40" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
@@ -2361,14 +2369,14 @@
       <c r="B41" s="17">
         <v>6</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="40"/>
+      <c r="E41" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
@@ -2377,12 +2385,12 @@
       <c r="B42" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="35"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
@@ -2391,10 +2399,10 @@
       <c r="B43" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
@@ -2403,10 +2411,10 @@
       <c r="B44" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -2415,10 +2423,10 @@
       <c r="B45" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
@@ -2427,10 +2435,10 @@
       <c r="B46" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
@@ -2439,10 +2447,10 @@
       <c r="B47" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
@@ -2451,10 +2459,10 @@
       <c r="B48" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="38"/>
     </row>
     <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
@@ -2463,14 +2471,14 @@
       <c r="B49" s="17">
         <v>6</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27" t="s">
+      <c r="D49" s="40"/>
+      <c r="E49" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="28"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -2479,12 +2487,12 @@
       <c r="B50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="35"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
@@ -2493,10 +2501,10 @@
       <c r="B51" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
@@ -2505,10 +2513,10 @@
       <c r="B52" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
@@ -2517,10 +2525,10 @@
       <c r="B53" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
@@ -2529,10 +2537,10 @@
       <c r="B54" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
@@ -2541,10 +2549,10 @@
       <c r="B55" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
     </row>
     <row r="56" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
@@ -2553,25 +2561,18 @@
       <c r="B56" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C42:D48"/>
-    <mergeCell ref="E42:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D56"/>
-    <mergeCell ref="E50:F56"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D40"/>
-    <mergeCell ref="E34:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:F8"/>
+    <mergeCell ref="C10:D16"/>
     <mergeCell ref="C18:D24"/>
     <mergeCell ref="C26:D32"/>
     <mergeCell ref="E26:F32"/>
@@ -2583,14 +2584,22 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:F8"/>
-    <mergeCell ref="C10:D16"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D40"/>
+    <mergeCell ref="E34:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D48"/>
+    <mergeCell ref="E42:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D56"/>
+    <mergeCell ref="E50:F56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>